--- a/recombination/recombination_references.xlsx
+++ b/recombination/recombination_references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045F6C8-D680-A54E-9AB2-49B48241A0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95872E3F-CDCC-A34D-B016-CF180E059713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="18440" windowHeight="17360" xr2:uid="{D098B555-783A-FB4C-A4D2-95855C80ECD2}"/>
+    <workbookView xWindow="29640" yWindow="-1980" windowWidth="18440" windowHeight="20060" xr2:uid="{D098B555-783A-FB4C-A4D2-95855C80ECD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="424">
   <si>
     <t>cardiovirus</t>
   </si>
@@ -1001,18 +1001,6 @@
     <t>batpicorna_rdp_all_align_nt_right</t>
   </si>
   <si>
-    <t>1,9,10,11,12</t>
-  </si>
-  <si>
-    <t>1,2,7,3,9,10,11,12</t>
-  </si>
-  <si>
-    <t>1,4,9,10,11,12</t>
-  </si>
-  <si>
-    <t>1,5,9,10,11,12</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
@@ -1056,6 +1044,270 @@
   </si>
   <si>
     <t>1,2,3,4,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
+  </si>
+  <si>
+    <t>clades</t>
+  </si>
+  <si>
+    <t>7,9,10,11</t>
+  </si>
+  <si>
+    <t>H_larvatus_china</t>
+  </si>
+  <si>
+    <t>hepato_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>2,3,5,6,8,12,13</t>
+  </si>
+  <si>
+    <t>rhinolophus_china</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>kobu_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>kobu_rdp_all_align_nt_left_clade</t>
+  </si>
+  <si>
+    <t>kobu_rdp_all_align_nt_mid_clade</t>
+  </si>
+  <si>
+    <t>kobu_rdp_all_align_nt_right_clade</t>
+  </si>
+  <si>
+    <t>Aichivirus A8</t>
+  </si>
+  <si>
+    <t>Rattus tanezumi - China</t>
+  </si>
+  <si>
+    <t>OM069746.1</t>
+  </si>
+  <si>
+    <t>OM069755.1</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus - Hungary</t>
+  </si>
+  <si>
+    <t>Kobuvirus aichi</t>
+  </si>
+  <si>
+    <t>MN116647.1</t>
+  </si>
+  <si>
+    <t>rattus_tanezumi_china</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>NC_038317.1</t>
+  </si>
+  <si>
+    <t>Kunsagivirus 1</t>
+  </si>
+  <si>
+    <t>Coracias garrulus hungary</t>
+  </si>
+  <si>
+    <t>Kunsagivirus A</t>
+  </si>
+  <si>
+    <t>OQ716009.1</t>
+  </si>
+  <si>
+    <t>Typhlomys cinereus china</t>
+  </si>
+  <si>
+    <t>OQ716008.1</t>
+  </si>
+  <si>
+    <t>Niviventer niviventer china</t>
+  </si>
+  <si>
+    <t>ON136180.1</t>
+  </si>
+  <si>
+    <t>Kunsagivirus sp.</t>
+  </si>
+  <si>
+    <t>rodent UK</t>
+  </si>
+  <si>
+    <t>rodent_china</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>eonycteris_china</t>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_all_align_nt_left_clade</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_all_align_nt_mid_clade</t>
+  </si>
+  <si>
+    <t>sapelo_rdp_all_align_nt_right_clade</t>
+  </si>
+  <si>
+    <t>e_helvum_cameroon</t>
+  </si>
+  <si>
+    <t>15,16,18,19,20</t>
+  </si>
+  <si>
+    <t>r_aegypticus_kenya</t>
+  </si>
+  <si>
+    <t>22,23,24,25</t>
+  </si>
+  <si>
+    <t>sapo_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>sapo_rdp_all_align_nt_left_clade</t>
+  </si>
+  <si>
+    <t>sapo_rdp_all_align_nt_mid_clade</t>
+  </si>
+  <si>
+    <t>sapo_rdp_all_align_nt_right_clade</t>
+  </si>
+  <si>
+    <t>r_aegypticus_africa</t>
+  </si>
+  <si>
+    <t>9,11</t>
+  </si>
+  <si>
+    <t>rousettus_china</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>tescho_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>tescho_rdp_align_all_nt_clade</t>
+  </si>
+  <si>
+    <t>17,18,19,20,21,24</t>
+  </si>
+  <si>
+    <t>bat_bicornavirus_3</t>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+  </si>
+  <si>
+    <t>shanbavirus_a</t>
+  </si>
+  <si>
+    <t>rhinolophus_BtSY4</t>
+  </si>
+  <si>
+    <t>8,25</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_all_align_nt__clade</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_all_align_nt_mid_clade</t>
+  </si>
+  <si>
+    <t>batpicorna_rdp_all_align_nt_right_clade</t>
+  </si>
+  <si>
+    <t>1,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>1,4,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>1,5,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>1,2,7,3,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>1,8,9,12,15,16,17</t>
+  </si>
+  <si>
+    <t>1,2,7,6,3,8,9,12,15,16,17</t>
+  </si>
+  <si>
+    <t>1,4,8,9,12,15,16,17</t>
+  </si>
+  <si>
+    <t>1,5,8,9,12,15,16,17</t>
+  </si>
+  <si>
+    <t>kunsagi_rdp_align_nt_clade</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,12,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>1,2,3,5,11,7,12,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>1,2,3,10,12,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>1,2,3,6,4,8,9,12,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>1,6,17,21,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,3,6,8,7,14,13,17,21,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,6,10,11,4,5,17,21,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,2,9,12,6,17,21,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,10,12,13</t>
+  </si>
+  <si>
+    <t>1,2,3,8,10,12,13</t>
+  </si>
+  <si>
+    <t>1,2,4,22,23,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,2,4,5,22,23,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,2,4,6,22,23,26,27,28,29</t>
+  </si>
+  <si>
+    <t>1,2,3,7,4,22,23,26,27,28,29</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1364,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D3F017-F6A7-2E48-AA72-A9E646068FC2}">
-  <dimension ref="A4:H208"/>
+  <dimension ref="A4:H259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1748,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1516,7 +1774,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>251</v>
       </c>
       <c r="C7" t="s">
@@ -1525,13 +1783,12 @@
       <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>252</v>
       </c>
       <c r="C8" t="s">
@@ -1540,13 +1797,12 @@
       <c r="D8" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>255</v>
       </c>
       <c r="C9" t="s">
@@ -1555,13 +1811,12 @@
       <c r="D9" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>249</v>
       </c>
     </row>
@@ -1569,7 +1824,7 @@
       <c r="A12" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>250</v>
       </c>
     </row>
@@ -1608,7 +1863,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
@@ -1634,7 +1889,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
@@ -1660,7 +1915,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
@@ -1686,7 +1941,7 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
@@ -1712,7 +1967,7 @@
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>143</v>
       </c>
       <c r="C22" t="s">
@@ -1721,13 +1976,12 @@
       <c r="D22" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>145</v>
       </c>
       <c r="C23" t="s">
@@ -1736,34 +1990,32 @@
       <c r="D23" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>260</v>
       </c>
       <c r="C24" t="s">
         <v>144</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1771,7 +2023,7 @@
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>181</v>
       </c>
       <c r="C26" t="s">
@@ -1785,7 +2037,7 @@
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>183</v>
       </c>
       <c r="C27" t="s">
@@ -1799,7 +2051,7 @@
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>186</v>
       </c>
       <c r="C28" t="s">
@@ -1813,173 +2065,99 @@
       <c r="A29">
         <v>12</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>248</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
       <c r="B36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>160</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D41" t="s">
         <v>161</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F41" t="s">
         <v>86</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
         <v>87</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H41" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8379</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>1286</v>
-      </c>
-      <c r="F39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>1287</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>2837</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -1987,8 +2165,8 @@
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42">
-        <v>1742</v>
+      <c r="E42" s="1">
+        <v>8379</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -2002,10 +2180,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -2014,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>1028</v>
+        <v>1286</v>
       </c>
       <c r="F43" t="s">
         <v>92</v>
@@ -2028,19 +2206,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44">
-        <v>1872</v>
+        <v>1287</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -2054,10 +2232,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -2065,8 +2243,8 @@
       <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="1">
-        <v>8228</v>
+      <c r="E45">
+        <v>2837</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -2080,902 +2258,967 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>191</v>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1742</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>192</v>
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1028</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>192</v>
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1872</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8228</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>197</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D53" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" t="s">
+        <v>347</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>353</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>248</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B62" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>301</v>
       </c>
-      <c r="B52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>302</v>
       </c>
-      <c r="B53" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>303</v>
       </c>
-      <c r="B54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>304</v>
-      </c>
-      <c r="B55" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" t="s">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>7329</v>
-      </c>
-      <c r="F61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G61" t="s">
-        <v>96</v>
-      </c>
-      <c r="H61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
+      <c r="B65" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>160</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D75" t="s">
         <v>161</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F75" t="s">
         <v>86</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G75" t="s">
         <v>87</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H75" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="1">
-        <v>7982</v>
-      </c>
-      <c r="F73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>209</v>
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>7329</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>210</v>
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>356</v>
+      </c>
+      <c r="C80" t="s">
+        <v>357</v>
+      </c>
+      <c r="D80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>6</v>
       </c>
-      <c r="B78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" t="s">
+        <v>359</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C83" t="s">
+        <v>365</v>
+      </c>
+      <c r="D83" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>248</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B88" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>306</v>
-      </c>
-      <c r="B81" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>407</v>
+      </c>
+      <c r="B90" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>160</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B94" t="s">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D94" t="s">
         <v>161</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E94" t="s">
         <v>7</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F94" t="s">
         <v>86</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G94" t="s">
         <v>87</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H94" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>7685</v>
-      </c>
-      <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
-      </c>
-      <c r="H87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="1">
-        <v>7751</v>
-      </c>
-      <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s">
-        <v>101</v>
-      </c>
-      <c r="H88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>7714</v>
-      </c>
-      <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s">
-        <v>102</v>
-      </c>
-      <c r="H89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>4</v>
-      </c>
-      <c r="B90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90">
-        <v>1177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91">
-        <v>1127</v>
-      </c>
-      <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>101</v>
-      </c>
-      <c r="H91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92">
-        <v>2134</v>
-      </c>
-      <c r="F92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s">
-        <v>101</v>
-      </c>
-      <c r="H92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93">
-        <v>1717</v>
-      </c>
-      <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s">
-        <v>101</v>
-      </c>
-      <c r="H93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94">
-        <v>1244</v>
-      </c>
-      <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>101</v>
-      </c>
-      <c r="H94" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
-      <c r="E95">
-        <v>1165</v>
+      <c r="E95" s="1">
+        <v>7982</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96">
-        <v>1111</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>101</v>
-      </c>
-      <c r="H96" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97">
-        <v>1924</v>
-      </c>
-      <c r="F97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s">
-        <v>101</v>
-      </c>
-      <c r="H97" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>222</v>
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>15</v>
-      </c>
-      <c r="B101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>16</v>
+      <c r="A102" t="s">
+        <v>248</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
-      </c>
-      <c r="C102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>17</v>
+      <c r="A103" t="s">
+        <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
-      </c>
-      <c r="C103" t="s">
-        <v>225</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>18</v>
-      </c>
-      <c r="B104" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" t="s">
-        <v>264</v>
-      </c>
-      <c r="D104" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>19</v>
-      </c>
-      <c r="B105" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" t="s">
-        <v>266</v>
-      </c>
-      <c r="D105" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>20</v>
-      </c>
-      <c r="B106" t="s">
-        <v>267</v>
-      </c>
-      <c r="C106" t="s">
-        <v>264</v>
-      </c>
-      <c r="D106" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D107" s="2"/>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>161</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H108" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>248</v>
+      <c r="A109">
+        <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>31</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>7685</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" t="s">
+        <v>101</v>
+      </c>
+      <c r="H109" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>307</v>
+      <c r="A110">
+        <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>7751</v>
+      </c>
+      <c r="F110" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>308</v>
+      <c r="A111">
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>7714</v>
+      </c>
+      <c r="F111" t="s">
+        <v>100</v>
+      </c>
+      <c r="G111" t="s">
+        <v>102</v>
+      </c>
+      <c r="H111" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>309</v>
+      <c r="A112">
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>37</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>1177</v>
+      </c>
+      <c r="F112" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H112" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>310</v>
+      <c r="A113">
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>38</v>
+      </c>
+      <c r="C113" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>1127</v>
+      </c>
+      <c r="F113" t="s">
+        <v>99</v>
+      </c>
+      <c r="G113" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>2134</v>
+      </c>
+      <c r="F114" t="s">
+        <v>99</v>
+      </c>
+      <c r="G114" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>1717</v>
+      </c>
+      <c r="F115" t="s">
+        <v>99</v>
+      </c>
+      <c r="G115" t="s">
+        <v>101</v>
+      </c>
+      <c r="H115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>1244</v>
+      </c>
+      <c r="F116" t="s">
+        <v>99</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H116" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>9</v>
+      </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>1165</v>
+      </c>
+      <c r="F117" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+      <c r="H117" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>160</v>
+      <c r="A118">
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>1111</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H118" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="1">
-        <v>6378</v>
+      <c r="E119">
+        <v>1924</v>
       </c>
       <c r="F119" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G119" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H119" t="s">
         <v>125</v>
@@ -2983,619 +3226,562 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120">
-        <v>3232</v>
-      </c>
-      <c r="F120" t="s">
-        <v>103</v>
-      </c>
-      <c r="G120" t="s">
-        <v>106</v>
-      </c>
-      <c r="H120" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121">
-        <v>1043</v>
-      </c>
-      <c r="F121" t="s">
-        <v>103</v>
-      </c>
-      <c r="G121" t="s">
-        <v>107</v>
-      </c>
-      <c r="H121" t="s">
-        <v>127</v>
+        <v>218</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122">
-        <v>2171</v>
-      </c>
-      <c r="F122" t="s">
-        <v>104</v>
-      </c>
-      <c r="G122" t="s">
-        <v>108</v>
-      </c>
-      <c r="H122" t="s">
-        <v>127</v>
+        <v>219</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123">
-        <v>2611</v>
-      </c>
-      <c r="F123" t="s">
-        <v>105</v>
-      </c>
-      <c r="G123" t="s">
-        <v>109</v>
-      </c>
-      <c r="H123" t="s">
-        <v>127</v>
+        <v>220</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" s="1">
-        <v>7432</v>
-      </c>
-      <c r="F124" t="s">
-        <v>103</v>
-      </c>
-      <c r="G124" t="s">
-        <v>106</v>
-      </c>
-      <c r="H124" t="s">
-        <v>125</v>
+        <v>221</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125">
-        <v>2012</v>
-      </c>
-      <c r="F125" t="s">
-        <v>103</v>
-      </c>
-      <c r="G125" t="s">
-        <v>106</v>
-      </c>
-      <c r="H125" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126">
-        <v>1694</v>
-      </c>
-      <c r="F126" t="s">
-        <v>103</v>
-      </c>
-      <c r="G126" t="s">
-        <v>106</v>
-      </c>
-      <c r="H126" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127">
-        <v>1200</v>
-      </c>
-      <c r="F127" t="s">
-        <v>104</v>
-      </c>
-      <c r="G127" t="s">
-        <v>108</v>
-      </c>
-      <c r="H127" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>372</v>
+      </c>
+      <c r="B139" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>373</v>
+      </c>
+      <c r="B140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>374</v>
+      </c>
+      <c r="B141" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>86</v>
+      </c>
+      <c r="G146" t="s">
+        <v>87</v>
+      </c>
+      <c r="H146" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>46</v>
+      </c>
+      <c r="C147" t="s">
+        <v>47</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6378</v>
+      </c>
+      <c r="F147" t="s">
+        <v>103</v>
+      </c>
+      <c r="G147" t="s">
+        <v>106</v>
+      </c>
+      <c r="H147" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>3232</v>
+      </c>
+      <c r="F148" t="s">
+        <v>103</v>
+      </c>
+      <c r="G148" t="s">
+        <v>106</v>
+      </c>
+      <c r="H148" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>1043</v>
+      </c>
+      <c r="F149" t="s">
+        <v>103</v>
+      </c>
+      <c r="G149" t="s">
+        <v>107</v>
+      </c>
+      <c r="H149" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>2171</v>
+      </c>
+      <c r="F150" t="s">
+        <v>104</v>
+      </c>
+      <c r="G150" t="s">
+        <v>108</v>
+      </c>
+      <c r="H150" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" t="s">
+        <v>55</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>2611</v>
+      </c>
+      <c r="F151" t="s">
+        <v>105</v>
+      </c>
+      <c r="G151" t="s">
+        <v>109</v>
+      </c>
+      <c r="H151" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>7432</v>
+      </c>
+      <c r="F152" t="s">
+        <v>103</v>
+      </c>
+      <c r="G152" t="s">
+        <v>106</v>
+      </c>
+      <c r="H152" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>2012</v>
+      </c>
+      <c r="F153" t="s">
+        <v>103</v>
+      </c>
+      <c r="G153" t="s">
+        <v>106</v>
+      </c>
+      <c r="H153" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>1694</v>
+      </c>
+      <c r="F154" t="s">
+        <v>103</v>
+      </c>
+      <c r="G154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>1200</v>
+      </c>
+      <c r="F155" t="s">
+        <v>104</v>
+      </c>
+      <c r="G155" t="s">
+        <v>108</v>
+      </c>
+      <c r="H155" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156">
         <v>10</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B156" t="s">
         <v>62</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C156" t="s">
         <v>53</v>
       </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128">
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156">
         <v>2961</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F156" t="s">
         <v>104</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G156" t="s">
         <v>108</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H156" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
         <v>11</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B157" t="s">
         <v>63</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C157" t="s">
         <v>53</v>
       </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129">
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157">
         <v>1884</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F157" t="s">
         <v>104</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G157" t="s">
         <v>108</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H157" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>12</v>
-      </c>
-      <c r="B130" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" t="s">
-        <v>53</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130">
-        <v>1266</v>
-      </c>
-      <c r="F130" t="s">
-        <v>104</v>
-      </c>
-      <c r="G130" t="s">
-        <v>108</v>
-      </c>
-      <c r="H130" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131">
-        <v>1146</v>
-      </c>
-      <c r="F131" t="s">
-        <v>104</v>
-      </c>
-      <c r="G131" t="s">
-        <v>108</v>
-      </c>
-      <c r="H131" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>14</v>
-      </c>
-      <c r="B132" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132">
-        <v>1014</v>
-      </c>
-      <c r="F132" t="s">
-        <v>104</v>
-      </c>
-      <c r="G132" t="s">
-        <v>108</v>
-      </c>
-      <c r="H132" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>15</v>
-      </c>
-      <c r="B133" t="s">
-        <v>162</v>
-      </c>
-      <c r="C133" t="s">
-        <v>163</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>16</v>
-      </c>
-      <c r="B134" t="s">
-        <v>152</v>
-      </c>
-      <c r="C134" t="s">
-        <v>164</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>17</v>
-      </c>
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-      <c r="C135" t="s">
-        <v>166</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>18</v>
-      </c>
-      <c r="B136" t="s">
-        <v>153</v>
-      </c>
-      <c r="C136" t="s">
-        <v>170</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>19</v>
-      </c>
-      <c r="B137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C137" t="s">
-        <v>171</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>20</v>
-      </c>
-      <c r="B138" t="s">
-        <v>168</v>
-      </c>
-      <c r="C138" t="s">
-        <v>172</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>21</v>
-      </c>
-      <c r="B139" t="s">
-        <v>173</v>
-      </c>
-      <c r="C139" t="s">
-        <v>174</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>22</v>
-      </c>
-      <c r="B140" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" t="s">
-        <v>271</v>
-      </c>
-      <c r="D140" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>23</v>
-      </c>
-      <c r="B141" t="s">
-        <v>272</v>
-      </c>
-      <c r="C141" t="s">
-        <v>271</v>
-      </c>
-      <c r="D141" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>24</v>
-      </c>
-      <c r="B142" t="s">
-        <v>274</v>
-      </c>
-      <c r="C142" t="s">
-        <v>271</v>
-      </c>
-      <c r="D142" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>25</v>
-      </c>
-      <c r="B143" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" t="s">
-        <v>271</v>
-      </c>
-      <c r="D143" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>26</v>
-      </c>
-      <c r="B144" t="s">
-        <v>276</v>
-      </c>
-      <c r="C144" t="s">
-        <v>105</v>
-      </c>
-      <c r="D144" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>27</v>
-      </c>
-      <c r="B145" t="s">
-        <v>277</v>
-      </c>
-      <c r="C145" t="s">
-        <v>278</v>
-      </c>
-      <c r="D145" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D146" s="2"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>248</v>
-      </c>
-      <c r="B148" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>311</v>
-      </c>
-      <c r="B149" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>312</v>
-      </c>
-      <c r="B150" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>313</v>
-      </c>
-      <c r="B151" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>314</v>
-      </c>
-      <c r="B152" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" t="s">
-        <v>86</v>
-      </c>
-      <c r="G157" t="s">
-        <v>87</v>
-      </c>
-      <c r="H157" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C158" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D158" t="s">
         <v>5</v>
       </c>
-      <c r="E158" s="1">
-        <v>7085</v>
+      <c r="E158">
+        <v>1266</v>
       </c>
       <c r="F158" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G158" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H158" t="s">
         <v>127</v>
@@ -3603,51 +3789,51 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C159" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="1">
-        <v>7294</v>
+      <c r="E159">
+        <v>1146</v>
       </c>
       <c r="F159" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G159" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H159" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C160" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
-      <c r="E160" s="1">
-        <v>7228</v>
+      <c r="E160">
+        <v>1014</v>
       </c>
       <c r="F160" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G160" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H160" t="s">
         <v>127</v>
@@ -3655,649 +3841,1175 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
-      </c>
-      <c r="D162" t="s">
-        <v>282</v>
+        <v>164</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C163" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>266</v>
-      </c>
-      <c r="D166" t="s">
-        <v>281</v>
+        <v>172</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="D167" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C168" t="s">
-        <v>266</v>
-      </c>
-      <c r="D168" t="s">
+        <v>271</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D169" s="2"/>
+      <c r="A169">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>272</v>
+      </c>
+      <c r="C169" t="s">
+        <v>271</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="A170">
+        <v>24</v>
+      </c>
+      <c r="B170" t="s">
+        <v>274</v>
+      </c>
+      <c r="C170" t="s">
+        <v>271</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>25</v>
+      </c>
+      <c r="B171" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" t="s">
+        <v>271</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>26</v>
+      </c>
+      <c r="B172" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172" t="s">
+        <v>105</v>
+      </c>
+      <c r="D172" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>27</v>
+      </c>
+      <c r="B173" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" t="s">
+        <v>278</v>
+      </c>
+      <c r="D173" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>28</v>
+      </c>
+      <c r="B176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>29</v>
+      </c>
+      <c r="B177" t="s">
+        <v>377</v>
+      </c>
+      <c r="C177" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>248</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B179" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>315</v>
-      </c>
-      <c r="B171" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>316</v>
-      </c>
-      <c r="B172" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>311</v>
+      </c>
+      <c r="B180" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>313</v>
+      </c>
+      <c r="B182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>314</v>
+      </c>
+      <c r="B183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>379</v>
+      </c>
+      <c r="B184" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>380</v>
+      </c>
+      <c r="B185" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>381</v>
+      </c>
+      <c r="B186" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>160</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B192" t="s">
         <v>1</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C192" t="s">
         <v>2</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D192" t="s">
         <v>161</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E192" t="s">
         <v>7</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F192" t="s">
         <v>86</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G192" t="s">
         <v>87</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H192" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
         <v>1</v>
       </c>
-      <c r="B178" t="s">
-        <v>75</v>
-      </c>
-      <c r="C178" t="s">
-        <v>76</v>
-      </c>
-      <c r="D178" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178" s="1">
-        <v>7280</v>
-      </c>
-      <c r="F178" t="s">
-        <v>113</v>
-      </c>
-      <c r="G178" t="s">
-        <v>116</v>
-      </c>
-      <c r="H178" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="B193" t="s">
+        <v>68</v>
+      </c>
+      <c r="C193" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="1">
+        <v>7085</v>
+      </c>
+      <c r="F193" t="s">
+        <v>110</v>
+      </c>
+      <c r="G193" t="s">
+        <v>111</v>
+      </c>
+      <c r="H193" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>2</v>
       </c>
-      <c r="B179" t="s">
-        <v>77</v>
-      </c>
-      <c r="C179" t="s">
-        <v>76</v>
-      </c>
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" s="1">
-        <v>7614</v>
-      </c>
-      <c r="F179" t="s">
-        <v>113</v>
-      </c>
-      <c r="G179" t="s">
-        <v>116</v>
-      </c>
-      <c r="H179" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="B194" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" t="s">
+        <v>71</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>7294</v>
+      </c>
+      <c r="F194" t="s">
+        <v>110</v>
+      </c>
+      <c r="G194" t="s">
+        <v>112</v>
+      </c>
+      <c r="H194" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
         <v>3</v>
       </c>
-      <c r="B180" t="s">
-        <v>78</v>
-      </c>
-      <c r="C180" t="s">
-        <v>79</v>
-      </c>
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180">
-        <v>1028</v>
-      </c>
-      <c r="F180" t="s">
-        <v>115</v>
-      </c>
-      <c r="G180" t="s">
-        <v>117</v>
-      </c>
-      <c r="H180" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="B195" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" t="s">
+        <v>73</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1">
+        <v>7228</v>
+      </c>
+      <c r="F195" t="s">
+        <v>110</v>
+      </c>
+      <c r="G195" t="s">
+        <v>111</v>
+      </c>
+      <c r="H195" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
         <v>4</v>
       </c>
-      <c r="B181" t="s">
-        <v>80</v>
-      </c>
-      <c r="C181" t="s">
-        <v>81</v>
-      </c>
-      <c r="D181" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="1">
-        <v>7513</v>
-      </c>
-      <c r="F181" t="s">
-        <v>113</v>
-      </c>
-      <c r="G181" t="s">
-        <v>116</v>
-      </c>
-      <c r="H181" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>5</v>
-      </c>
-      <c r="B182" t="s">
-        <v>82</v>
-      </c>
-      <c r="C182" t="s">
-        <v>81</v>
-      </c>
-      <c r="D182" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182">
-        <v>2410</v>
-      </c>
-      <c r="F182" t="s">
-        <v>114</v>
-      </c>
-      <c r="G182" t="s">
-        <v>118</v>
-      </c>
-      <c r="H182" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="B196" t="s">
+        <v>135</v>
+      </c>
+      <c r="C196" t="s">
+        <v>227</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>154</v>
+      </c>
+      <c r="C197" t="s">
+        <v>228</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
         <v>6</v>
       </c>
-      <c r="B183" t="s">
-        <v>83</v>
-      </c>
-      <c r="C183" t="s">
-        <v>81</v>
-      </c>
-      <c r="D183" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183">
-        <v>2384</v>
-      </c>
-      <c r="F183" t="s">
-        <v>114</v>
-      </c>
-      <c r="G183" t="s">
-        <v>119</v>
-      </c>
-      <c r="H183" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="B198" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" t="s">
+        <v>229</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
         <v>7</v>
       </c>
-      <c r="B184" t="s">
-        <v>84</v>
-      </c>
-      <c r="C184" t="s">
-        <v>81</v>
-      </c>
-      <c r="D184" t="s">
-        <v>5</v>
-      </c>
-      <c r="E184">
-        <v>1160</v>
-      </c>
-      <c r="F184" t="s">
-        <v>114</v>
-      </c>
-      <c r="G184" t="s">
-        <v>120</v>
-      </c>
-      <c r="H184" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="B199" t="s">
+        <v>136</v>
+      </c>
+      <c r="C199" t="s">
+        <v>230</v>
+      </c>
+      <c r="D199" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
         <v>8</v>
       </c>
-      <c r="B185" t="s">
-        <v>159</v>
-      </c>
-      <c r="C185" t="s">
-        <v>113</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="B200" t="s">
+        <v>232</v>
+      </c>
+      <c r="C200" t="s">
+        <v>233</v>
+      </c>
+      <c r="D200" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
         <v>9</v>
       </c>
-      <c r="B186" t="s">
-        <v>155</v>
-      </c>
-      <c r="C186" t="s">
-        <v>114</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>10</v>
-      </c>
-      <c r="B187" t="s">
-        <v>156</v>
-      </c>
-      <c r="C187" t="s">
-        <v>114</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>11</v>
-      </c>
-      <c r="B188" t="s">
-        <v>157</v>
-      </c>
-      <c r="C188" t="s">
-        <v>114</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>12</v>
-      </c>
-      <c r="B189" t="s">
-        <v>158</v>
-      </c>
-      <c r="C189" t="s">
-        <v>114</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>13</v>
-      </c>
-      <c r="B190" t="s">
-        <v>239</v>
-      </c>
-      <c r="C190" t="s">
-        <v>242</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>14</v>
-      </c>
-      <c r="B191" t="s">
-        <v>240</v>
-      </c>
-      <c r="C191" t="s">
-        <v>243</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>15</v>
-      </c>
-      <c r="B192" t="s">
-        <v>241</v>
-      </c>
-      <c r="C192" t="s">
-        <v>244</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>16</v>
-      </c>
-      <c r="B193" t="s">
-        <v>134</v>
-      </c>
-      <c r="C193" t="s">
-        <v>246</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>17</v>
-      </c>
-      <c r="B194" t="s">
-        <v>285</v>
-      </c>
-      <c r="C194" t="s">
-        <v>266</v>
-      </c>
-      <c r="D194" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>18</v>
-      </c>
-      <c r="B195" t="s">
-        <v>287</v>
-      </c>
-      <c r="C195" t="s">
-        <v>266</v>
-      </c>
-      <c r="D195" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>19</v>
-      </c>
-      <c r="B196" t="s">
-        <v>288</v>
-      </c>
-      <c r="C196" t="s">
-        <v>266</v>
-      </c>
-      <c r="D196" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>20</v>
-      </c>
-      <c r="B197" t="s">
-        <v>290</v>
-      </c>
-      <c r="C197" t="s">
-        <v>266</v>
-      </c>
-      <c r="D197" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>21</v>
-      </c>
-      <c r="B198" t="s">
-        <v>291</v>
-      </c>
-      <c r="C198" t="s">
-        <v>266</v>
-      </c>
-      <c r="D198" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>22</v>
-      </c>
-      <c r="B199" t="s">
-        <v>292</v>
-      </c>
-      <c r="C199" t="s">
-        <v>293</v>
-      </c>
-      <c r="D199" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>23</v>
-      </c>
-      <c r="B200" t="s">
-        <v>295</v>
-      </c>
-      <c r="C200" t="s">
-        <v>296</v>
-      </c>
-      <c r="D200" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>24</v>
-      </c>
       <c r="B201" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C201" t="s">
         <v>266</v>
       </c>
-      <c r="D201" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D201" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C202" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D202" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>248</v>
-      </c>
-      <c r="B204" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>284</v>
+      </c>
+      <c r="C203" t="s">
+        <v>266</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="B205" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="C205" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>12</v>
+      </c>
+      <c r="B206" t="s">
+        <v>383</v>
+      </c>
+      <c r="C206" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>385</v>
+      </c>
+      <c r="C207" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>248</v>
+      </c>
+      <c r="B209" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>315</v>
+      </c>
+      <c r="B210" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>316</v>
+      </c>
+      <c r="B211" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>387</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>388</v>
+      </c>
+      <c r="B213" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>160</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>161</v>
+      </c>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" t="s">
+        <v>86</v>
+      </c>
+      <c r="G218" t="s">
+        <v>87</v>
+      </c>
+      <c r="H218" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>75</v>
+      </c>
+      <c r="C219" t="s">
+        <v>76</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="1">
+        <v>7280</v>
+      </c>
+      <c r="F219" t="s">
+        <v>113</v>
+      </c>
+      <c r="G219" t="s">
+        <v>116</v>
+      </c>
+      <c r="H219" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>77</v>
+      </c>
+      <c r="C220" t="s">
+        <v>76</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="1">
+        <v>7614</v>
+      </c>
+      <c r="F220" t="s">
+        <v>113</v>
+      </c>
+      <c r="G220" t="s">
+        <v>116</v>
+      </c>
+      <c r="H220" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>78</v>
+      </c>
+      <c r="C221" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>1028</v>
+      </c>
+      <c r="F221" t="s">
+        <v>115</v>
+      </c>
+      <c r="G221" t="s">
+        <v>117</v>
+      </c>
+      <c r="H221" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>80</v>
+      </c>
+      <c r="C222" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1">
+        <v>7513</v>
+      </c>
+      <c r="F222" t="s">
+        <v>113</v>
+      </c>
+      <c r="G222" t="s">
+        <v>116</v>
+      </c>
+      <c r="H222" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" t="s">
+        <v>81</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>2410</v>
+      </c>
+      <c r="F223" t="s">
+        <v>114</v>
+      </c>
+      <c r="G223" t="s">
+        <v>118</v>
+      </c>
+      <c r="H223" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>83</v>
+      </c>
+      <c r="C224" t="s">
+        <v>81</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>2384</v>
+      </c>
+      <c r="F224" t="s">
+        <v>114</v>
+      </c>
+      <c r="G224" t="s">
+        <v>119</v>
+      </c>
+      <c r="H224" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>84</v>
+      </c>
+      <c r="C225" t="s">
+        <v>81</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>1160</v>
+      </c>
+      <c r="F225" t="s">
+        <v>114</v>
+      </c>
+      <c r="G225" t="s">
+        <v>120</v>
+      </c>
+      <c r="H225" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
+        <v>159</v>
+      </c>
+      <c r="C226" t="s">
+        <v>113</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>155</v>
+      </c>
+      <c r="C227" t="s">
+        <v>114</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>156</v>
+      </c>
+      <c r="C228" t="s">
+        <v>114</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>157</v>
+      </c>
+      <c r="C229" t="s">
+        <v>114</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>12</v>
+      </c>
+      <c r="B230" t="s">
+        <v>158</v>
+      </c>
+      <c r="C230" t="s">
+        <v>114</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>239</v>
+      </c>
+      <c r="C231" t="s">
+        <v>242</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>240</v>
+      </c>
+      <c r="C232" t="s">
+        <v>243</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>15</v>
+      </c>
+      <c r="B233" t="s">
+        <v>241</v>
+      </c>
+      <c r="C233" t="s">
+        <v>244</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>16</v>
+      </c>
+      <c r="B234" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234" t="s">
+        <v>246</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
+        <v>285</v>
+      </c>
+      <c r="C235" t="s">
+        <v>266</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>287</v>
+      </c>
+      <c r="C236" t="s">
+        <v>266</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>19</v>
+      </c>
+      <c r="B237" t="s">
+        <v>288</v>
+      </c>
+      <c r="C237" t="s">
+        <v>266</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>290</v>
+      </c>
+      <c r="C238" t="s">
+        <v>266</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>21</v>
+      </c>
+      <c r="B239" t="s">
+        <v>291</v>
+      </c>
+      <c r="C239" t="s">
+        <v>266</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>22</v>
+      </c>
+      <c r="B240" t="s">
+        <v>292</v>
+      </c>
+      <c r="C240" t="s">
+        <v>293</v>
+      </c>
+      <c r="D240" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>23</v>
+      </c>
+      <c r="B241" t="s">
+        <v>295</v>
+      </c>
+      <c r="C241" t="s">
+        <v>296</v>
+      </c>
+      <c r="D241" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>24</v>
+      </c>
+      <c r="B242" t="s">
+        <v>298</v>
+      </c>
+      <c r="C242" t="s">
+        <v>266</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>25</v>
+      </c>
+      <c r="B243" t="s">
+        <v>299</v>
+      </c>
+      <c r="C243" t="s">
+        <v>113</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>160</v>
+      </c>
+      <c r="B245" t="s">
+        <v>336</v>
+      </c>
+      <c r="C245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>26</v>
+      </c>
+      <c r="B246" t="s">
+        <v>383</v>
+      </c>
+      <c r="C246" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>27</v>
+      </c>
+      <c r="B247" t="s">
+        <v>390</v>
+      </c>
+      <c r="C247" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>28</v>
+      </c>
+      <c r="B248" t="s">
+        <v>392</v>
+      </c>
+      <c r="C248" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>29</v>
+      </c>
+      <c r="B249" t="s">
+        <v>393</v>
+      </c>
+      <c r="C249" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>317</v>
+      </c>
+      <c r="B252" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>318</v>
       </c>
-      <c r="B206" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="B253" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>319</v>
       </c>
-      <c r="B207" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="B254" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>320</v>
       </c>
-      <c r="B208" t="s">
-        <v>339</v>
+      <c r="B255" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>395</v>
+      </c>
+      <c r="B256" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>396</v>
+      </c>
+      <c r="B257" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>397</v>
+      </c>
+      <c r="B258" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>398</v>
+      </c>
+      <c r="B259" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/recombination/recombination_references.xlsx
+++ b/recombination/recombination_references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95872E3F-CDCC-A34D-B016-CF180E059713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2399FB-019B-CC48-A754-07ECBDB59D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="-1980" windowWidth="18440" windowHeight="20060" xr2:uid="{D098B555-783A-FB4C-A4D2-95855C80ECD2}"/>
+    <workbookView xWindow="43260" yWindow="-220" windowWidth="16440" windowHeight="17360" xr2:uid="{D098B555-783A-FB4C-A4D2-95855C80ECD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="432">
   <si>
     <t>cardiovirus</t>
   </si>
@@ -1016,36 +1016,6 @@
     <t>1,2,4,6,8,9,3,12,13,14,15,16,17,18,19,20</t>
   </si>
   <si>
-    <t>1,6,15,16,17,18,19,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>1,2,6,9,12,15,16,17,18,19,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>1,4,5,6,10,11,15,16,17,18,19,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>1,3,6,7,8,13,15,16,17,18,19,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,8,9,10,11</t>
-  </si>
-  <si>
-    <t>1,2,4,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
-  </si>
-  <si>
-    <t>1,2,4,5,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
-  </si>
-  <si>
-    <t>1,2,4,6,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
-  </si>
-  <si>
-    <t>1,2,3,4,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
-  </si>
-  <si>
     <t>clades</t>
   </si>
   <si>
@@ -1280,41 +1250,95 @@
     <t>1,2,3,6,4,8,9,12,17,18,19,20,21</t>
   </si>
   <si>
-    <t>1,6,17,21,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,3,6,8,7,14,13,17,21,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,6,10,11,4,5,17,21,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,2,9,12,6,17,21,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,2,3,7,8,10,12,13</t>
-  </si>
-  <si>
-    <t>1,2,3,8,10,12,13</t>
-  </si>
-  <si>
-    <t>1,2,4,22,23,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,2,4,5,22,23,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,2,4,6,22,23,26,27,28,29</t>
-  </si>
-  <si>
-    <t>1,2,3,7,4,22,23,26,27,28,29</t>
+    <t>PV788824</t>
+  </si>
+  <si>
+    <t>Rousettus madagascariensis sapovirus 4</t>
+  </si>
+  <si>
+    <t>PV788826</t>
+  </si>
+  <si>
+    <t>PV788825</t>
+  </si>
+  <si>
+    <t>Rousettus madagascariensis picornavirus 4</t>
+  </si>
+  <si>
+    <t>XBH24017.1</t>
+  </si>
+  <si>
+    <t>XBH24168.1</t>
+  </si>
+  <si>
+    <t>Rousettus aegypticus - kenya</t>
+  </si>
+  <si>
+    <t>1,2,3,7,4,22,23,26,27,28,29, 30</t>
+  </si>
+  <si>
+    <t>1,2,4,6,22,23,26,27,28,29,30</t>
+  </si>
+  <si>
+    <t>1,2,4,5,22,23,26,27,28,29,30</t>
+  </si>
+  <si>
+    <t>1,2,4,22,23,26,27,28,29,30</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,30</t>
+  </si>
+  <si>
+    <t>1,2,4,6,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25, 30</t>
+  </si>
+  <si>
+    <t>1,2,4,5,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25, 30</t>
+  </si>
+  <si>
+    <t>1,2,4,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25, 30</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,8,9,10,11, 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11, 14</t>
+  </si>
+  <si>
+    <t>1,2,3,8,10,12,13, 14</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,10,12,13, 14</t>
+  </si>
+  <si>
+    <t>1,6,15,16,17,18,19,20,21,22,23,24,25,26,27, 30</t>
+  </si>
+  <si>
+    <t>1,2,6,9,12,15,16,17,18,19,20,21,22,23,24,25,26,27, 30</t>
+  </si>
+  <si>
+    <t>1,4,5,6,10,11,15,16,17,18,19,20,21,22,23,24,25,26,27, 30</t>
+  </si>
+  <si>
+    <t>1,3,6,7,8,13,15,16,17,18,19,20,21,22,23,24,25,26,27, 30</t>
+  </si>
+  <si>
+    <t>1,6,17,21,26,27,28,29, 30</t>
+  </si>
+  <si>
+    <t>1,2,9,12,6,17,21,26,27,28,29, 30</t>
+  </si>
+  <si>
+    <t>1,6,10,11,4,5,17,21,26,27,28,29, 30</t>
+  </si>
+  <si>
+    <t>1,3,6,8,7,14,13,17,21,26,27,28,29, 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1324,6 +1348,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1361,10 +1392,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D3F017-F6A7-2E48-AA72-A9E646068FC2}">
-  <dimension ref="A4:H259"/>
+  <dimension ref="A4:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2113,7 @@
         <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
         <v>249</v>
@@ -2091,10 +2124,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2115,10 +2148,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2421,13 +2454,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2435,13 +2468,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2449,13 +2482,13 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D56" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2463,7 +2496,7 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
         <v>249</v>
@@ -2474,10 +2507,10 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C59" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2485,10 +2518,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2504,7 +2537,7 @@
         <v>301</v>
       </c>
       <c r="B63" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2512,7 +2545,7 @@
         <v>302</v>
       </c>
       <c r="B64" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2520,7 +2553,7 @@
         <v>303</v>
       </c>
       <c r="B65" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2528,39 +2561,39 @@
         <v>304</v>
       </c>
       <c r="B66" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2667,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2681,13 +2714,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2695,13 +2728,13 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C82" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2709,13 +2742,13 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C83" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D83" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2723,7 +2756,7 @@
         <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
         <v>249</v>
@@ -2734,10 +2767,10 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C86" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2753,15 +2786,15 @@
         <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -3355,7 +3388,7 @@
         <v>160</v>
       </c>
       <c r="B130" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C130" t="s">
         <v>249</v>
@@ -3366,10 +3399,10 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C131" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3414,34 +3447,34 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -3839,7 +3872,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15</v>
       </c>
@@ -3853,7 +3886,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>16</v>
       </c>
@@ -3867,7 +3900,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>17</v>
       </c>
@@ -3881,7 +3914,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>18</v>
       </c>
@@ -3895,7 +3928,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>19</v>
       </c>
@@ -3909,7 +3942,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>20</v>
       </c>
@@ -3923,7 +3956,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>21</v>
       </c>
@@ -3937,7 +3970,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>22</v>
       </c>
@@ -3951,7 +3984,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>23</v>
       </c>
@@ -3965,7 +3998,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>24</v>
       </c>
@@ -3979,7 +4012,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>25</v>
       </c>
@@ -3993,7 +4026,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>26</v>
       </c>
@@ -4007,7 +4040,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>27</v>
       </c>
@@ -4021,257 +4054,269 @@
         <v>279</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>30</v>
+      </c>
+      <c r="B174" t="s">
+        <v>404</v>
+      </c>
+      <c r="C174" t="s">
+        <v>405</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="1">
+        <v>7214</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>160</v>
       </c>
-      <c r="B175" t="s">
-        <v>336</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>326</v>
+      </c>
+      <c r="C176" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
         <v>28</v>
       </c>
-      <c r="B176" t="s">
-        <v>375</v>
-      </c>
-      <c r="C176" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="B177" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
         <v>29</v>
       </c>
-      <c r="B177" t="s">
-        <v>377</v>
-      </c>
-      <c r="C177" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B178" t="s">
+        <v>367</v>
+      </c>
+      <c r="C178" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>248</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>311</v>
       </c>
-      <c r="B180" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>312</v>
       </c>
-      <c r="B181" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B182" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>313</v>
       </c>
-      <c r="B182" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>314</v>
       </c>
-      <c r="B183" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>379</v>
-      </c>
       <c r="B184" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B185" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B187" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>160</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>1</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>2</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>161</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E193" t="s">
         <v>7</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F193" t="s">
         <v>86</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G193" t="s">
         <v>87</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H193" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193" t="s">
-        <v>68</v>
-      </c>
-      <c r="C193" t="s">
-        <v>69</v>
-      </c>
-      <c r="D193" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193" s="1">
-        <v>7085</v>
-      </c>
-      <c r="F193" t="s">
-        <v>110</v>
-      </c>
-      <c r="G193" t="s">
-        <v>111</v>
-      </c>
-      <c r="H193" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C194" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D194" t="s">
         <v>5</v>
       </c>
       <c r="E194" s="1">
-        <v>7294</v>
+        <v>7085</v>
       </c>
       <c r="F194" t="s">
         <v>110</v>
       </c>
       <c r="G194" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H194" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C195" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
       </c>
       <c r="E195" s="1">
-        <v>7228</v>
+        <v>7294</v>
       </c>
       <c r="F195" t="s">
         <v>110</v>
       </c>
       <c r="G195" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H195" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>223</v>
+        <v>73</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="1">
+        <v>7228</v>
+      </c>
+      <c r="F196" t="s">
+        <v>110</v>
+      </c>
+      <c r="G196" t="s">
+        <v>111</v>
+      </c>
+      <c r="H196" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C198" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>282</v>
@@ -4279,271 +4324,262 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
-      </c>
-      <c r="D199" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="C200" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D200" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C201" t="s">
-        <v>266</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>281</v>
+        <v>233</v>
+      </c>
+      <c r="D201" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C202" t="s">
-        <v>110</v>
-      </c>
-      <c r="D202" t="s">
-        <v>128</v>
+        <v>266</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>283</v>
+      </c>
+      <c r="C203" t="s">
+        <v>110</v>
+      </c>
+      <c r="D203" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204">
         <v>11</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>284</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>266</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D204" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="A205">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>406</v>
+      </c>
+      <c r="C205" t="s">
+        <v>73</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" s="1">
+        <v>6984</v>
+      </c>
+      <c r="F205" t="s">
+        <v>110</v>
+      </c>
+      <c r="G205" t="s">
+        <v>111</v>
+      </c>
+      <c r="H205" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>160</v>
       </c>
-      <c r="B205" t="s">
-        <v>336</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="B207" t="s">
+        <v>326</v>
+      </c>
+      <c r="C207" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208">
         <v>12</v>
       </c>
-      <c r="B206" t="s">
-        <v>383</v>
-      </c>
-      <c r="C206" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="B208" t="s">
+        <v>373</v>
+      </c>
+      <c r="C208" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209">
         <v>13</v>
       </c>
-      <c r="B207" t="s">
-        <v>385</v>
-      </c>
-      <c r="C207" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>248</v>
-      </c>
       <c r="B209" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>315</v>
-      </c>
-      <c r="B210" t="s">
-        <v>331</v>
+        <v>375</v>
+      </c>
+      <c r="C209" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="B211" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>377</v>
+      </c>
+      <c r="B214" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>378</v>
+      </c>
+      <c r="B215" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>160</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B220" t="s">
         <v>1</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>2</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D220" t="s">
         <v>161</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E220" t="s">
         <v>7</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F220" t="s">
         <v>86</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G220" t="s">
         <v>87</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H220" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219" t="s">
-        <v>75</v>
-      </c>
-      <c r="C219" t="s">
-        <v>76</v>
-      </c>
-      <c r="D219" t="s">
-        <v>5</v>
-      </c>
-      <c r="E219" s="1">
-        <v>7280</v>
-      </c>
-      <c r="F219" t="s">
-        <v>113</v>
-      </c>
-      <c r="G219" t="s">
-        <v>116</v>
-      </c>
-      <c r="H219" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>2</v>
-      </c>
-      <c r="B220" t="s">
-        <v>77</v>
-      </c>
-      <c r="C220" t="s">
-        <v>76</v>
-      </c>
-      <c r="D220" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" s="1">
-        <v>7614</v>
-      </c>
-      <c r="F220" t="s">
-        <v>113</v>
-      </c>
-      <c r="G220" t="s">
-        <v>116</v>
-      </c>
-      <c r="H220" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C221" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D221" t="s">
         <v>5</v>
       </c>
-      <c r="E221">
-        <v>1028</v>
+      <c r="E221" s="1">
+        <v>7280</v>
       </c>
       <c r="F221" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G221" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H221" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C222" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D222" t="s">
         <v>5</v>
       </c>
       <c r="E222" s="1">
-        <v>7513</v>
+        <v>7614</v>
       </c>
       <c r="F222" t="s">
         <v>113</v>
@@ -4557,36 +4593,36 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C223" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D223" t="s">
         <v>5</v>
       </c>
       <c r="E223">
-        <v>2410</v>
+        <v>1028</v>
       </c>
       <c r="F223" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G223" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H223" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C224" t="s">
         <v>81</v>
@@ -4594,25 +4630,25 @@
       <c r="D224" t="s">
         <v>5</v>
       </c>
-      <c r="E224">
-        <v>2384</v>
+      <c r="E224" s="1">
+        <v>7513</v>
       </c>
       <c r="F224" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G224" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H224" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B225" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C225" t="s">
         <v>81</v>
@@ -4621,125 +4657,149 @@
         <v>5</v>
       </c>
       <c r="E225">
-        <v>1160</v>
+        <v>2410</v>
       </c>
       <c r="F225" t="s">
         <v>114</v>
       </c>
       <c r="G225" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H225" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="C226" t="s">
-        <v>113</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>235</v>
+        <v>81</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>2384</v>
+      </c>
+      <c r="F226" t="s">
+        <v>114</v>
+      </c>
+      <c r="G226" t="s">
+        <v>119</v>
+      </c>
+      <c r="H226" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B227" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C227" t="s">
+        <v>81</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>1160</v>
+      </c>
+      <c r="F227" t="s">
         <v>114</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>236</v>
+      <c r="G227" t="s">
+        <v>120</v>
+      </c>
+      <c r="H227" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C228" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C229" t="s">
         <v>114</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B230" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C230" t="s">
         <v>114</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="C231" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>245</v>
@@ -4747,269 +4807,323 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="C234" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="C235" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
       <c r="C236" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B237" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C237" t="s">
         <v>266</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B238" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C238" t="s">
         <v>266</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B239" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C239" t="s">
         <v>266</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>290</v>
+      </c>
+      <c r="C240" t="s">
+        <v>266</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>21</v>
+      </c>
+      <c r="B241" t="s">
+        <v>291</v>
+      </c>
+      <c r="C241" t="s">
+        <v>266</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242">
         <v>22</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B242" t="s">
         <v>292</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C242" t="s">
         <v>293</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D242" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243">
         <v>23</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B243" t="s">
         <v>295</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C243" t="s">
         <v>296</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D243" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244">
         <v>24</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B244" t="s">
         <v>298</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C244" t="s">
         <v>266</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245">
         <v>25</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B245" t="s">
         <v>299</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C245" t="s">
         <v>113</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>30</v>
+      </c>
+      <c r="B246" t="s">
+        <v>407</v>
+      </c>
+      <c r="C246" t="s">
+        <v>408</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="1">
+        <v>7667</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>160</v>
       </c>
-      <c r="B245" t="s">
-        <v>336</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="B248" t="s">
+        <v>326</v>
+      </c>
+      <c r="C248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249">
         <v>26</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B249" t="s">
+        <v>373</v>
+      </c>
+      <c r="C249" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>27</v>
+      </c>
+      <c r="B250" t="s">
+        <v>380</v>
+      </c>
+      <c r="C250" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>28</v>
+      </c>
+      <c r="B251" t="s">
+        <v>382</v>
+      </c>
+      <c r="C251" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>29</v>
+      </c>
+      <c r="B252" t="s">
         <v>383</v>
       </c>
-      <c r="C246" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>27</v>
-      </c>
-      <c r="B247" t="s">
-        <v>390</v>
-      </c>
-      <c r="C247" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>28</v>
-      </c>
-      <c r="B248" t="s">
-        <v>392</v>
-      </c>
-      <c r="C248" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>29</v>
-      </c>
-      <c r="B249" t="s">
-        <v>393</v>
-      </c>
-      <c r="C249" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="C252" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>248</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B254" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>317</v>
       </c>
-      <c r="B252" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+      <c r="B255" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>318</v>
       </c>
-      <c r="B253" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>319</v>
-      </c>
-      <c r="B254" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>320</v>
-      </c>
-      <c r="B255" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>395</v>
-      </c>
       <c r="B256" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="B257" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="B258" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B259" t="s">
-        <v>423</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>386</v>
+      </c>
+      <c r="B260" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>387</v>
+      </c>
+      <c r="B261" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>388</v>
+      </c>
+      <c r="B262" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
